--- a/PCA_0006_MINI_CB_REV_B/BOM/PCA_0006_MINI_CB_REV_B_Digikey.xlsx
+++ b/PCA_0006_MINI_CB_REV_B/BOM/PCA_0006_MINI_CB_REV_B_Digikey.xlsx
@@ -1,30 +1,36 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="18431"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="11105"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\dadmin\GitHub\Pixhawk_OS_Hardware\PCA_0006_MINI_CB_REV_B\BOM\"/>
     </mc:Choice>
   </mc:AlternateContent>
+  <xr:revisionPtr revIDLastSave="1" documentId="11_8DAAE15ED5AA6EA61E28923A5C37ED7887648B2A" xr6:coauthVersionLast="40" xr6:coauthVersionMax="40" xr10:uidLastSave="{C8C509EB-0617-3B46-AA4E-B2E8D4E34E1A}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="28800" windowHeight="12210"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="28800" windowHeight="12210" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
   </sheets>
-  <calcPr calcId="171027"/>
+  <calcPr calcId="191028"/>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
+    </ext>
+    <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
+      <xcalcf:calcFeatures>
+        <xcalcf:feature name="microsoft.com:RD"/>
+      </xcalcf:calcFeatures>
     </ext>
   </extLst>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="64" uniqueCount="53">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="65" uniqueCount="54">
   <si>
     <t>Manufacturer 1</t>
   </si>
@@ -183,12 +189,15 @@
   </si>
   <si>
     <t>Supplier</t>
+  </si>
+  <si>
+    <t>On hand</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
   <fonts count="3" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
@@ -560,27 +569,27 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:H10"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
+  <dimension ref="A1:I10"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="D22" sqref="D22"/>
+    <sheetView tabSelected="1" topLeftCell="E1" workbookViewId="0" xr3:uid="{AEA406A1-0E4B-5B11-9CD5-51D6E497D94C}">
+      <selection activeCell="I2" sqref="I2"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultColWidth="9.14453125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
   <cols>
-    <col min="1" max="1" width="24.7109375" style="2" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="26.7109375" style="2" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="11.5703125" style="2" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="24.75" style="2" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="26.76953125" style="2" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="11.56640625" style="2" bestFit="1" customWidth="1"/>
     <col min="4" max="4" width="27.7109375" style="2" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="49.28515625" style="2" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="22.85546875" style="2" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="8.7109375" style="2" bestFit="1" customWidth="1"/>
-    <col min="8" max="8" width="19.85546875" style="2" bestFit="1" customWidth="1"/>
-    <col min="9" max="16384" width="9.140625" style="2"/>
+    <col min="5" max="5" width="49.234375" style="2" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="22.8671875" style="2" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="8.7421875" style="2" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="19.90625" style="2" bestFit="1" customWidth="1"/>
+    <col min="9" max="16384" width="9.14453125" style="2"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:8" s="1" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:9" s="1" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -605,8 +614,11 @@
       <c r="H1" s="1" t="s">
         <v>6</v>
       </c>
-    </row>
-    <row r="2" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="I1" s="1" t="s">
+        <v>53</v>
+      </c>
+    </row>
+    <row r="2" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A2" s="2" t="s">
         <v>7</v>
       </c>
@@ -632,7 +644,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="3" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A3" s="2" t="s">
         <v>34</v>
       </c>
@@ -655,7 +667,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="4" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A4" s="2" t="s">
         <v>34</v>
       </c>
@@ -678,7 +690,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="5" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A5" s="2" t="s">
         <v>34</v>
       </c>
@@ -701,7 +713,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="6" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A6" s="2" t="s">
         <v>7</v>
       </c>
@@ -727,7 +739,7 @@
         <v>16</v>
       </c>
     </row>
-    <row r="7" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A7" s="2" t="s">
         <v>47</v>
       </c>
@@ -753,7 +765,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="8" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A8" s="2" t="s">
         <v>21</v>
       </c>
@@ -779,7 +791,7 @@
         <v>25</v>
       </c>
     </row>
-    <row r="9" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A9" s="2" t="s">
         <v>50</v>
       </c>
@@ -805,7 +817,7 @@
         <v>27</v>
       </c>
     </row>
-    <row r="10" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A10" s="2" t="s">
         <v>29</v>
       </c>
